--- a/testing/Tang_overall_metrics.xlsx
+++ b/testing/Tang_overall_metrics.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2951491687542701</v>
+        <v>0.5473696196766112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2951491687542701</v>
+        <v>0.5473696196766112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3668011037996179</v>
+        <v>0.5464052287581699</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1014325560418559</v>
+        <v>0.07889549794121917</v>
       </c>
       <c r="F2" t="n">
-        <v>4.508747571377261</v>
+        <v>3.506959684504892</v>
       </c>
       <c r="G2" t="n">
         <v>8782</v>
@@ -502,19 +502,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3721466731423021</v>
+        <v>0.5734579893152015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3721466731423021</v>
+        <v>0.5734579893152015</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3570180547466512</v>
+        <v>0.5101258303180861</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09870208565082253</v>
+        <v>0.08008931355801432</v>
       </c>
       <c r="F3" t="n">
-        <v>4.678234381637808</v>
+        <v>3.796035086982494</v>
       </c>
       <c r="G3" t="n">
         <v>8236</v>
@@ -527,19 +527,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4989098492748128</v>
+        <v>0.4995734192814485</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4989098492748128</v>
+        <v>0.4995734192814485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3842587522359727</v>
+        <v>0.496</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1284824923320426</v>
+        <v>0.1029514443045073</v>
       </c>
       <c r="F4" t="n">
-        <v>4.754497734542624</v>
+        <v>3.809720685124019</v>
       </c>
       <c r="G4" t="n">
         <v>10549</v>
@@ -552,19 +552,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2966345167248102</v>
+        <v>0.4694233531705315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2966345167248102</v>
+        <v>0.4694233531705315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2791618385477018</v>
+        <v>0.4962039045553145</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1244169910888903</v>
+        <v>0.09396297463850045</v>
       </c>
       <c r="F5" t="n">
-        <v>4.983394535543376</v>
+        <v>3.763590248074376</v>
       </c>
       <c r="G5" t="n">
         <v>9746</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3281482861400894</v>
+        <v>0.5422876304023845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3281482861400894</v>
+        <v>0.5422876304023845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3088996054362122</v>
+        <v>0.5377049180327869</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1300065840730932</v>
+        <v>0.09582944063103611</v>
       </c>
       <c r="F6" t="n">
-        <v>4.727100428304499</v>
+        <v>3.484403448339702</v>
       </c>
       <c r="G6" t="n">
         <v>10736</v>
@@ -602,19 +602,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2729837761580061</v>
+        <v>0.5754173524570891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2729837761580061</v>
+        <v>0.5754173524570891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.332855504587156</v>
+        <v>0.5993571100566355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1911075890064888</v>
+        <v>0.1320409098441566</v>
       </c>
       <c r="F7" t="n">
-        <v>4.385251886321832</v>
+        <v>3.029877839890902</v>
       </c>
       <c r="G7" t="n">
         <v>17012</v>
